--- a/results/uzgent_p_value_result_dataframe.xlsx
+++ b/results/uzgent_p_value_result_dataframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Heroic\ESICM\AF_model\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Heroic\ESICM\atrial_fibrillation_prediction\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2718A895-B1D3-40B0-A174-0F1CFA35D0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6CD6B2A-A056-4C64-AAB0-32E66AF4D93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="1884" yWindow="1932" windowWidth="17280" windowHeight="8976"/>
   </bookViews>
   <sheets>
     <sheet name="uzgent_p_value_result_dataframe" sheetId="1" r:id="rId1"/>
@@ -1522,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="D44">
-        <v>0.82002548751635496</v>
+        <v>0.60734091834805104</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>0.72704855974858495</v>
+        <v>0.89013263857986902</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1550,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="D46">
-        <v>0.97807789552660995</v>
+        <v>0.55640235607327504</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1564,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="D47">
-        <v>0.43585240849884199</v>
+        <v>0.45306359266430102</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1578,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="D48">
-        <v>7.9584083439324702E-2</v>
+        <v>0.101046060028713</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1592,7 +1592,7 @@
         <v>7</v>
       </c>
       <c r="D49">
-        <v>0.77433976009857397</v>
+        <v>0.82026932925501395</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1606,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <v>2.6270227046658198E-2</v>
+        <v>6.1011056126611E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1620,7 +1620,7 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>0.48879228070568498</v>
+        <v>0.45270671808269197</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1634,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="D52">
-        <v>5.7968282871310201E-2</v>
+        <v>0.166765216060906</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>0.93007760596173805</v>
+        <v>0.84256515710029001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>0.15895113402884001</v>
+        <v>0.158498637194213</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1676,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="D55">
-        <v>0.24923011147077301</v>
+        <v>0.44239950557927399</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>0.44888738353390401</v>
+        <v>0.62987707593020503</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1704,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>0.76531306197214199</v>
+        <v>0.842256926252831</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1718,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="D58">
-        <v>0.446288638036347</v>
+        <v>0.63406681767151096</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>0.35079917700200403</v>
+        <v>0.26422362062995802</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="D61">
-        <v>0.32779375591804799</v>
+        <v>0.23493206263636399</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="D62">
-        <v>0.62987707593020503</v>
+        <v>0.83637809133038499</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1788,7 +1788,7 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>0.21685842903753699</v>
+        <v>0.18759727862565001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1802,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="D64">
-        <v>0.82176679627441496</v>
+        <v>0.47341068894315602</v>
       </c>
     </row>
   </sheetData>
